--- a/LR3/table_1_110.xlsx
+++ b/LR3/table_1_110.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5F21B0-C407-4A16-8C40-FB75BE311F4C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBC58F9-783B-4328-AF32-2E9A01FF381F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,12 +130,6 @@
     <t>Шаймарданова</t>
   </si>
   <si>
-    <t>Шаймарданова 1</t>
-  </si>
-  <si>
-    <t>Шаймарданова 2</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
@@ -173,6 +167,12 @@
   </si>
   <si>
     <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Куропаткин 1</t>
+  </si>
+  <si>
+    <t>Куропаткин 2</t>
   </si>
 </sst>
 </file>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -541,31 +541,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1933,7 +1933,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1">
         <v>53</v>
@@ -1973,7 +1973,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1">
         <v>52.5</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1">
         <f>TRUNC(SUM(K3:K38))</f>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_110.xlsx
+++ b/LR3/table_1_110.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBC58F9-783B-4328-AF32-2E9A01FF381F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0543A649-6D21-497C-B8C5-32BFAAD0A9D8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -148,9 +148,6 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Пеня за 1 день, руб.</t>
-  </si>
-  <si>
     <t>Штраф, руб.</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>Куропаткин 2</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,13 +559,13 @@
         <v>41</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D33" si="0">110*1.1</f>
+        <f t="shared" ref="D4:D34" si="0">110*1.1</f>
         <v>121.00000000000001</v>
       </c>
       <c r="E4" s="1">
@@ -1819,12 +1819,12 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f>110*1.1/2</f>
-        <v>60.500000000000007</v>
+        <f t="shared" si="0"/>
+        <v>121.00000000000001</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="1"/>
-        <v>3297.2500000000005</v>
+        <v>6594.5000000000009</v>
       </c>
       <c r="F34" s="4">
         <v>44813</v>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="K34" s="1">
         <f t="shared" si="4"/>
-        <v>3527.2500000000005</v>
+        <v>6824.5000000000009</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1933,7 +1933,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1">
         <v>53</v>
@@ -1973,7 +1973,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1">
         <v>52.5</v>
@@ -2010,16 +2010,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1">
         <f>TRUNC(SUM(K3:K38))</f>
-        <v>254401</v>
+        <v>257698</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_110.xlsx
+++ b/LR3/table_1_110.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0543A649-6D21-497C-B8C5-32BFAAD0A9D8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A390D6A-FBAA-4996-9D9D-5497800718F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -593,7 +593,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF((F3-G3)&gt;0,0,-(F3-G3))</f>
+        <f>IF((F3&gt;=G3),0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -633,7 +633,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF((F4-G4)&gt;0,0,-(F4-G4))</f>
+        <f t="shared" ref="H4:H38" si="2">IF((F4&gt;=G4),0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">

--- a/LR3/table_1_110.xlsx
+++ b/LR3/table_1_110.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A390D6A-FBAA-4996-9D9D-5497800718F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFF53C4-CA1B-4583-AF35-23E990C2EED3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Абделазиз</t>
   </si>
   <si>
@@ -154,18 +151,12 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Общая сумма графы "Итого", руб.</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Куропаткин 1</t>
   </si>
   <si>
@@ -173,6 +164,12 @@
   </si>
   <si>
     <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -507,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -538,34 +535,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -573,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -610,12 +607,14 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
@@ -650,12 +649,14 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
+        <f>C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -690,12 +691,14 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" ref="C6:C38" si="6">C5-0.5</f>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -730,12 +733,14 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
@@ -770,12 +775,14 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
@@ -810,12 +817,14 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
@@ -850,12 +859,14 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
@@ -890,12 +901,14 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
@@ -930,12 +943,14 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
@@ -970,12 +985,14 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
@@ -1010,12 +1027,14 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
@@ -1050,12 +1069,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
@@ -1090,12 +1111,14 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
@@ -1130,12 +1153,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
@@ -1170,12 +1195,14 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
@@ -1210,12 +1237,14 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
@@ -1250,12 +1279,14 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
@@ -1290,12 +1321,14 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
@@ -1330,12 +1363,14 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
@@ -1370,12 +1405,14 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
@@ -1410,12 +1447,14 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
@@ -1450,12 +1489,14 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
@@ -1490,12 +1531,14 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
@@ -1530,12 +1573,14 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
@@ -1570,12 +1615,14 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
@@ -1610,12 +1657,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
@@ -1650,12 +1699,14 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
@@ -1690,12 +1741,14 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
@@ -1730,12 +1783,14 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
@@ -1770,12 +1825,14 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
@@ -1810,12 +1867,14 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
@@ -1850,16 +1909,18 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:D38" si="5">110*1.1/2</f>
+        <f t="shared" ref="D35:D38" si="7">110*1.1/2</f>
         <v>60.500000000000007</v>
       </c>
       <c r="E35" s="1">
@@ -1890,16 +1951,18 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E36" s="1">
@@ -1930,16 +1993,18 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E37" s="1">
@@ -1970,16 +2035,18 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1">
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E38" s="1">
@@ -2010,7 +2077,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1">
         <f>TRUNC(SUM(K3:K38))</f>
@@ -2019,7 +2086,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2028,7 +2095,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2037,7 +2104,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_110.xlsx
+++ b/LR3/table_1_110.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFF53C4-CA1B-4583-AF35-23E990C2EED3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296A611C-B028-44C6-ACB2-2D0323FE3A18}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -504,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2077,7 +2080,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C40" s="1">
         <f>TRUNC(SUM(K3:K38))</f>

--- a/LR3/table_1_110.xlsx
+++ b/LR3/table_1_110.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296A611C-B028-44C6-ACB2-2D0323FE3A18}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00EB2DC-95F7-4534-A785-BF50CE61A41A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,9 +160,6 @@
     <t>Куропаткин 1</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
     <t>Пени за 1 день, руб.</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Кузин</t>
   </si>
 </sst>
 </file>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>37</v>
@@ -559,7 +559,7 @@
         <v>40</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>41</v>
@@ -579,7 +579,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>110*1.1</f>
+        <f>$A$1*1.1</f>
         <v>121.00000000000001</v>
       </c>
       <c r="E3" s="1">
@@ -621,7 +621,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="0">110*1.1</f>
+        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>121.00000000000001</v>
       </c>
       <c r="E4" s="1">
@@ -629,9 +629,11 @@
         <v>8409.5000000000018</v>
       </c>
       <c r="F4" s="4">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="4">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -639,6 +641,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -671,9 +674,11 @@
         <v>8349.0000000000018</v>
       </c>
       <c r="F5" s="4">
+        <f t="shared" ref="F5:F38" si="6">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
+        <f t="shared" ref="G5:G37" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -681,6 +686,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="8">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -701,7 +707,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:C38" si="6">C5-0.5</f>
+        <f t="shared" ref="C6:C38" si="9">C5-0.5</f>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -713,9 +719,11 @@
         <v>8288.5000000000018</v>
       </c>
       <c r="F6" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -723,6 +731,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -743,7 +752,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
@@ -755,9 +764,11 @@
         <v>8228.0000000000018</v>
       </c>
       <c r="F7" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -765,6 +776,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -785,7 +797,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
@@ -797,9 +809,11 @@
         <v>8167.5000000000009</v>
       </c>
       <c r="F8" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -807,6 +821,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -827,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
@@ -839,9 +854,11 @@
         <v>8107.0000000000009</v>
       </c>
       <c r="F9" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -849,6 +866,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -869,7 +887,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
@@ -881,9 +899,11 @@
         <v>8046.5000000000009</v>
       </c>
       <c r="F10" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -891,6 +911,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -911,7 +932,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
@@ -923,9 +944,11 @@
         <v>7986.0000000000009</v>
       </c>
       <c r="F11" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -933,6 +956,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -953,7 +977,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
@@ -965,9 +989,11 @@
         <v>7925.5000000000009</v>
       </c>
       <c r="F12" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -975,6 +1001,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -995,7 +1022,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
@@ -1007,9 +1034,11 @@
         <v>7865.0000000000009</v>
       </c>
       <c r="F13" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1017,6 +1046,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1037,7 +1067,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
@@ -1049,9 +1079,11 @@
         <v>7804.5000000000009</v>
       </c>
       <c r="F14" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1059,6 +1091,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1079,7 +1112,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
@@ -1091,9 +1124,11 @@
         <v>7744.0000000000009</v>
       </c>
       <c r="F15" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1101,6 +1136,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1121,7 +1157,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
@@ -1133,9 +1169,11 @@
         <v>7683.5000000000009</v>
       </c>
       <c r="F16" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1143,6 +1181,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1163,7 +1202,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
@@ -1175,9 +1214,11 @@
         <v>7623.0000000000009</v>
       </c>
       <c r="F17" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1185,6 +1226,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1205,7 +1247,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
@@ -1217,9 +1259,11 @@
         <v>7562.5000000000009</v>
       </c>
       <c r="F18" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1227,6 +1271,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1247,7 +1292,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
@@ -1259,9 +1304,11 @@
         <v>7502.0000000000009</v>
       </c>
       <c r="F19" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1269,6 +1316,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1289,7 +1337,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
@@ -1301,9 +1349,11 @@
         <v>7441.5000000000009</v>
       </c>
       <c r="F20" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1311,6 +1361,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1331,7 +1382,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
@@ -1343,9 +1394,11 @@
         <v>7381.0000000000009</v>
       </c>
       <c r="F21" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1353,6 +1406,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1373,7 +1427,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
@@ -1385,9 +1439,11 @@
         <v>7320.5000000000009</v>
       </c>
       <c r="F22" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1395,6 +1451,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1415,7 +1472,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
@@ -1427,9 +1484,11 @@
         <v>7260.0000000000009</v>
       </c>
       <c r="F23" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1437,6 +1496,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1457,7 +1517,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
@@ -1469,9 +1529,11 @@
         <v>7199.5000000000009</v>
       </c>
       <c r="F24" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1479,6 +1541,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1499,7 +1562,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
@@ -1511,9 +1574,11 @@
         <v>7139.0000000000009</v>
       </c>
       <c r="F25" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1521,6 +1586,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1541,7 +1607,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
@@ -1553,9 +1619,11 @@
         <v>7078.5000000000009</v>
       </c>
       <c r="F26" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1563,6 +1631,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1583,7 +1652,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
@@ -1595,9 +1664,11 @@
         <v>7018.0000000000009</v>
       </c>
       <c r="F27" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1605,6 +1676,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1625,7 +1697,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
@@ -1637,9 +1709,11 @@
         <v>6957.5000000000009</v>
       </c>
       <c r="F28" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1647,6 +1721,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1667,7 +1742,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
@@ -1679,9 +1754,11 @@
         <v>6897.0000000000009</v>
       </c>
       <c r="F29" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1689,6 +1766,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1709,7 +1787,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
@@ -1721,9 +1799,11 @@
         <v>6836.5000000000009</v>
       </c>
       <c r="F30" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1731,6 +1811,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1751,7 +1832,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
@@ -1763,9 +1844,11 @@
         <v>6776.0000000000009</v>
       </c>
       <c r="F31" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1773,6 +1856,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1793,7 +1877,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
@@ -1805,9 +1889,11 @@
         <v>6715.5000000000009</v>
       </c>
       <c r="F32" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1815,6 +1901,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1835,7 +1922,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
@@ -1847,9 +1934,11 @@
         <v>6655.0000000000009</v>
       </c>
       <c r="F33" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1857,6 +1946,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1877,7 +1967,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
@@ -1889,9 +1979,11 @@
         <v>6594.5000000000009</v>
       </c>
       <c r="F34" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1899,6 +1991,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -1919,11 +2012,11 @@
         <v>33</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:D38" si="7">110*1.1/2</f>
+        <f>$A$1*1.1/2</f>
         <v>60.500000000000007</v>
       </c>
       <c r="E35" s="1">
@@ -1931,9 +2024,11 @@
         <v>3267.0000000000005</v>
       </c>
       <c r="F35" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -1941,6 +2036,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -1961,11 +2057,11 @@
         <v>34</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
         <v>60.500000000000007</v>
       </c>
       <c r="E36" s="1">
@@ -1973,9 +2069,11 @@
         <v>3236.7500000000005</v>
       </c>
       <c r="F36" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -1983,6 +2081,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2000,14 +2099,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E37" s="1">
@@ -2015,9 +2114,11 @@
         <v>3206.5000000000005</v>
       </c>
       <c r="F37" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2025,6 +2126,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2042,14 +2144,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="7"/>
+        <f>$A$1*1.1/2</f>
         <v>60.500000000000007</v>
       </c>
       <c r="E38" s="1">
@@ -2057,9 +2159,11 @@
         <v>3176.2500000000005</v>
       </c>
       <c r="F38" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
+        <f>G37+1</f>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2067,6 +2171,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2080,7 +2185,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1">
         <f>TRUNC(SUM(K3:K38))</f>
@@ -2107,7 +2212,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_110.xlsx
+++ b/LR3/table_1_110.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00EB2DC-95F7-4534-A785-BF50CE61A41A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56CDFD0-CF18-4D5F-A0C9-561D7C90041F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -621,11 +621,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
+        <f>$A$1*1.1</f>
         <v>121.00000000000001</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>8409.5000000000018</v>
       </c>
       <c r="F4" s="4">
@@ -637,7 +637,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF((F4&gt;=G4),0,G4-F4)</f>
+        <f>IF((F4&gt;=G4),$H$3,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -645,17 +645,17 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="1">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="2">E4+J4</f>
         <v>8409.5000000000018</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
+        <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -666,1443 +666,1443 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D34" si="4">$A$1*1.1</f>
         <v>121.00000000000001</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8349.0000000000018</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F38" si="6">$F$3</f>
+        <f t="shared" ref="F5:F38" si="5">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G37" si="7">G4+1</f>
+        <f t="shared" ref="G5:G37" si="6">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f>IF((F5&gt;=G5),$H$3,G5-F5)</f>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="8">$I$3</f>
+        <f t="shared" ref="I5:I38" si="7">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>8349.0000000000018</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:C38" si="9">C5-0.5</f>
+        <f t="shared" ref="C6:C38" si="8">C5-0.5</f>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8288.5000000000018</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H5:H38" si="9">IF((F6&gt;=G6),$H$3,G6-F6)</f>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>8288.5000000000018</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8228.0000000000018</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>8228.0000000000018</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8167.5000000000009</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>8167.5000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8107.0000000000009</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>8107.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8046.5000000000009</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>8046.5000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7986.0000000000009</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7986.0000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7925.5000000000009</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7935.5000000000009</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7865.0000000000009</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7885.0000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7804.5000000000009</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7834.5000000000009</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7744.0000000000009</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7784.0000000000009</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7683.5000000000009</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7733.5000000000009</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7623.0000000000009</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7683.0000000000009</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7562.5000000000009</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7632.5000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7502.0000000000009</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7582.0000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7441.5000000000009</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7531.5000000000009</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7381.0000000000009</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7481.0000000000009</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7320.5000000000009</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7430.5000000000009</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7260.0000000000009</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7380.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7199.5000000000009</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7329.5000000000009</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7139.0000000000009</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7279.0000000000009</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7078.5000000000009</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7228.5000000000009</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7018.0000000000009</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7178.0000000000009</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6957.5000000000009</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7127.5000000000009</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6897.0000000000009</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7077.0000000000009</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6836.5000000000009</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7026.5000000000009</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6776.0000000000009</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6976.0000000000009</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6715.5000000000009</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6925.5000000000009</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6655.0000000000009</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6875.0000000000009</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6594.5000000000009</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6824.5000000000009</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$A$1*1.1/2</f>
+        <f>$D$3/2</f>
         <v>60.500000000000007</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3267.0000000000005</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3507.0000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
+        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
         <v>60.500000000000007</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3236.7500000000005</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3486.7500000000005</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
@@ -2110,56 +2110,56 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3206.5000000000005</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3466.5000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>$A$1*1.1/2</f>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3176.2500000000005</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
@@ -2167,19 +2167,19 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3446.2500000000005</v>
       </c>
     </row>

--- a/LR3/table_1_110.xlsx
+++ b/LR3/table_1_110.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56CDFD0-CF18-4D5F-A0C9-561D7C90041F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99723E5-9716-481E-838F-66A4775F7646}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -593,7 +593,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF((F3&gt;=G3),0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -637,7 +637,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f>IF((F4&gt;=G4),$H$3,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -645,17 +645,17 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="1">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="2">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>8409.5000000000018</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A38" si="3">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -666,7 +666,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D4:D34" si="4">$A$1*1.1</f>
+        <f t="shared" ref="D5:D34" si="5">$A$1*1.1</f>
         <v>121.00000000000001</v>
       </c>
       <c r="E5" s="1">
@@ -674,44 +674,44 @@
         <v>8349.0000000000018</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F38" si="5">$F$3</f>
+        <f t="shared" ref="F5:F38" si="6">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G37" si="6">G4+1</f>
+        <f t="shared" ref="G5:G37" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f>IF((F5&gt;=G5),$H$3,G5-F5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="7">$I$3</f>
+        <f t="shared" ref="I5:I38" si="8">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8349.0000000000018</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:C38" si="8">C5-0.5</f>
+        <f t="shared" ref="C6:C38" si="9">C5-0.5</f>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E6" s="1">
@@ -719,44 +719,44 @@
         <v>8288.5000000000018</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ref="H5:H38" si="9">IF((F6&gt;=G6),$H$3,G6-F6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8288.5000000000018</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E7" s="1">
@@ -764,44 +764,44 @@
         <v>8228.0000000000018</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8228.0000000000018</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E8" s="1">
@@ -809,44 +809,44 @@
         <v>8167.5000000000009</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8167.5000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E9" s="1">
@@ -854,44 +854,44 @@
         <v>8107.0000000000009</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8107.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E10" s="1">
@@ -899,44 +899,44 @@
         <v>8046.5000000000009</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8046.5000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E11" s="1">
@@ -944,44 +944,44 @@
         <v>7986.0000000000009</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7986.0000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E12" s="1">
@@ -989,44 +989,44 @@
         <v>7925.5000000000009</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7935.5000000000009</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E13" s="1">
@@ -1034,44 +1034,44 @@
         <v>7865.0000000000009</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7885.0000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E14" s="1">
@@ -1079,44 +1079,44 @@
         <v>7804.5000000000009</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7834.5000000000009</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E15" s="1">
@@ -1124,44 +1124,44 @@
         <v>7744.0000000000009</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7784.0000000000009</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E16" s="1">
@@ -1169,44 +1169,44 @@
         <v>7683.5000000000009</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7733.5000000000009</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E17" s="1">
@@ -1214,44 +1214,44 @@
         <v>7623.0000000000009</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7683.0000000000009</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E18" s="1">
@@ -1259,44 +1259,44 @@
         <v>7562.5000000000009</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7632.5000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E19" s="1">
@@ -1304,44 +1304,44 @@
         <v>7502.0000000000009</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7582.0000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E20" s="1">
@@ -1349,44 +1349,44 @@
         <v>7441.5000000000009</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7531.5000000000009</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E21" s="1">
@@ -1394,44 +1394,44 @@
         <v>7381.0000000000009</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7481.0000000000009</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E22" s="1">
@@ -1439,44 +1439,44 @@
         <v>7320.5000000000009</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7430.5000000000009</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E23" s="1">
@@ -1484,44 +1484,44 @@
         <v>7260.0000000000009</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7380.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E24" s="1">
@@ -1529,44 +1529,44 @@
         <v>7199.5000000000009</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7329.5000000000009</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E25" s="1">
@@ -1574,44 +1574,44 @@
         <v>7139.0000000000009</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7279.0000000000009</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E26" s="1">
@@ -1619,44 +1619,44 @@
         <v>7078.5000000000009</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7228.5000000000009</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E27" s="1">
@@ -1664,44 +1664,44 @@
         <v>7018.0000000000009</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7178.0000000000009</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E28" s="1">
@@ -1709,44 +1709,44 @@
         <v>6957.5000000000009</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7127.5000000000009</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E29" s="1">
@@ -1754,44 +1754,44 @@
         <v>6897.0000000000009</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7077.0000000000009</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E30" s="1">
@@ -1799,44 +1799,44 @@
         <v>6836.5000000000009</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7026.5000000000009</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E31" s="1">
@@ -1844,44 +1844,44 @@
         <v>6776.0000000000009</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6976.0000000000009</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E32" s="1">
@@ -1889,44 +1889,44 @@
         <v>6715.5000000000009</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6925.5000000000009</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E33" s="1">
@@ -1934,44 +1934,44 @@
         <v>6655.0000000000009</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6875.0000000000009</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.00000000000001</v>
       </c>
       <c r="E34" s="1">
@@ -1979,40 +1979,40 @@
         <v>6594.5000000000009</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6824.5000000000009</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
@@ -2024,40 +2024,40 @@
         <v>3267.0000000000005</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3507.0000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
@@ -2069,40 +2069,40 @@
         <v>3236.7500000000005</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3486.7500000000005</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
@@ -2114,40 +2114,40 @@
         <v>3206.5000000000005</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3466.5000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
@@ -2159,7 +2159,7 @@
         <v>3176.2500000000005</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
@@ -2167,19 +2167,19 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3446.2500000000005</v>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
         <v>49</v>
       </c>
       <c r="C40" s="1">
-        <f>TRUNC(SUM(K3:K38))</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>257698</v>
       </c>
     </row>
